--- a/costs.xlsx
+++ b/costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10553"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Arduino pro mini</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>hx711</t>
+  </si>
+  <si>
+    <t>feather wifi</t>
   </si>
 </sst>
 </file>
@@ -467,18 +470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +501,14 @@
       <c r="H1">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +528,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -538,7 +548,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -559,7 +569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -574,7 +584,7 @@
         <v>47.85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -585,7 +595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -594,12 +604,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -607,17 +617,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -625,7 +635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -654,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -662,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
